--- a/medicine/Enfance/Sarah_K/Sarah_K..xlsx
+++ b/medicine/Enfance/Sarah_K/Sarah_K..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarah K., de son vrai nom Sarah Cohen-Scali, est une écrivaine française de littérature de jeunesse née le 16 octobre 1958 à Fès, Maroc. Elle est licenciée en philosophie et a suivi des études d'art dramatique avant de commencer à écrire pour les enfants. Elle a publié une vingtaine d'ouvrages pour la jeunesse mais aussi pour adultes, en particulier des romans noirs. Elle a commencé à écrire à l'âge de 29 ans.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Sous le pseudonyme de Sarah K.
-Douée pour le silence, La Martinière jeunesse, Coll. Confessions, 2004
+          <t>Sous le pseudonyme de Sarah K.</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Douée pour le silence, La Martinière jeunesse, Coll. Confessions, 2004
 La Puce détective rusé, Casterman, Coll. Mystère, 2004
 Un bisou, sorcière !, Père Castor Flammarion, 2001
 Mauvais sangs, Père Castor Flammarion, 2000
@@ -532,9 +549,43 @@
 Parfum de meurtre,Heure noire,2002
 Une histoire sans nom,Hachette Jeunesse,2006
 Le Choc Spécialement écrit pour son recueil de nouvelle vampirique: "Les Dents de la nuit", le livre de poche jeunesse, contemporain, 2009
-« Elle reviendra», Lampe de poche, en 2004
-Sous le nom de Sarah Cohen-Scali
-Max, Gallimard, 2012
+« Elle reviendra», Lampe de poche, en 2004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sarah_K.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sarah_K.</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous le nom de Sarah Cohen-Scali</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Max, Gallimard, 2012
 Agathe en flagrant délire, Rageot, Coll. Cascade-Policier 1997
 Arthur Rimbaud, le voleur de feu, Hachette jeunesse, 1997
 L'École frissonnière, Casterman, 1996
